--- a/docs/队员任务分配0721.xlsx
+++ b/docs/队员任务分配0721.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22416"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="24820" windowHeight="15400"/>
   </bookViews>
   <sheets>
     <sheet name="队员情况" sheetId="1" r:id="rId1"/>
     <sheet name="目前的任务" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +161,14 @@
   </si>
   <si>
     <t>输入某个用户的ID，输出推荐的电影的ID或者名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.根据目前需求，生成用户表2.进一步清洗数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交用户表和数据清洗程序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +189,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -202,8 +231,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -223,8 +260,16 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -282,7 +327,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,7 +362,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,21 +574,21 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.33203125" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="28">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -583,7 +628,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="28">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -595,7 +640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="98">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -607,9 +652,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="28">
       <c r="A5" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
@@ -619,7 +670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="42">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -634,7 +685,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -646,14 +702,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="3" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -664,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="42">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -675,7 +731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="56">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -686,7 +742,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="42">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -700,6 +756,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/队员任务分配0721.xlsx
+++ b/docs/队员任务分配0721.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="22416"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="24820" windowHeight="15400"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="24825" windowHeight="15405"/>
   </bookViews>
   <sheets>
     <sheet name="队员情况" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>提交用户表和数据清洗程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭个简单的WEB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建一个用于展示的web，后续再从其中选取一个合适的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,12 +230,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -242,7 +265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -253,23 +276,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -327,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +391,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -574,111 +603,123 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="22.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.33203125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="22.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="4">
         <v>42573</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="98">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42573</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="42">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
@@ -702,14 +743,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -720,7 +761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="42">
+    <row r="2" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -731,7 +772,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="56">
+    <row r="3" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -742,7 +783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42">
+    <row r="4" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
